--- a/test.xlsx
+++ b/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D62BE0-D34D-4800-B9C7-B53D1240FBF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9720BACA-F87A-483D-A006-F1EC62211F4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5350" yWindow="600" windowWidth="11040" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>23,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56,71</t>
+    <t>56,71,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -35,6 +31,10 @@
   </si>
   <si>
     <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,90,90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -373,10 +373,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -384,7 +384,7 @@
         <v>2016014274</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -392,7 +392,7 @@
         <v>2016014302</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
